--- a/farmacias_con_clusters.xlsx
+++ b/farmacias_con_clusters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo i5\Documents\MAESTRIA IA YACHAY TECH\APRENDIZAJE DE MAQUINA\SEMANA 1\LAB1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B1350-87B6-4F6B-8845-BE1630C1ECA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6E00C4-762E-4281-BD47-9FE944BCB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3291,11 +3291,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H964"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4115,7 +4116,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>808</v>
       </c>
@@ -4531,7 +4532,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>215</v>
       </c>
@@ -4635,7 +4636,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>40</v>
       </c>
@@ -4687,7 +4688,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>648</v>
       </c>
@@ -4713,7 +4714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>876</v>
       </c>
@@ -4765,7 +4766,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -4817,7 +4818,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>901</v>
       </c>
@@ -4843,7 +4844,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>740</v>
       </c>
@@ -4869,7 +4870,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>801</v>
       </c>
@@ -4895,7 +4896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>134</v>
       </c>
@@ -4947,7 +4948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>620</v>
       </c>
@@ -4973,7 +4974,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>666</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>854</v>
       </c>
@@ -5025,7 +5026,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>902</v>
       </c>
@@ -5051,7 +5052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>770</v>
       </c>
@@ -5103,7 +5104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>159</v>
       </c>
@@ -5129,7 +5130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>174</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>603</v>
       </c>
@@ -5207,7 +5208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>534</v>
       </c>
@@ -5233,7 +5234,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>32</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>468</v>
       </c>
@@ -5285,7 +5286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>12</v>
       </c>
@@ -5311,7 +5312,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>39</v>
       </c>
@@ -5337,7 +5338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>288</v>
       </c>
@@ -5363,7 +5364,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>312</v>
       </c>
@@ -5389,7 +5390,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>325</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>351</v>
       </c>
@@ -5441,7 +5442,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>387</v>
       </c>
@@ -5467,7 +5468,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>470</v>
       </c>
@@ -5545,7 +5546,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>765</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>931</v>
       </c>
@@ -5649,7 +5650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>821</v>
       </c>
@@ -5675,7 +5676,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>98</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>100</v>
       </c>
@@ -5727,7 +5728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>244</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>292</v>
       </c>
@@ -5831,7 +5832,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -5857,7 +5858,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>245</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>334</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>422</v>
       </c>
@@ -5935,7 +5936,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>504</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>86</v>
       </c>
@@ -6065,7 +6066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>138</v>
       </c>
@@ -6091,7 +6092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>454</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>772</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>840</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>304</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>386</v>
       </c>
@@ -6247,7 +6248,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>769</v>
       </c>
@@ -6273,7 +6274,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>775</v>
       </c>
@@ -6299,7 +6300,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>847</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>649</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>645</v>
       </c>
@@ -6663,7 +6664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>934</v>
       </c>
@@ -6689,7 +6690,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>934</v>
       </c>
@@ -6715,7 +6716,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>878</v>
       </c>
@@ -6767,7 +6768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>930</v>
       </c>
@@ -7157,7 +7158,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>610</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>671</v>
       </c>
@@ -7391,7 +7392,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>337</v>
       </c>
@@ -7417,7 +7418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>871</v>
       </c>
@@ -7443,7 +7444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>524</v>
       </c>
@@ -7469,7 +7470,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>337</v>
       </c>
@@ -7495,7 +7496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>871</v>
       </c>
@@ -7521,7 +7522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>524</v>
       </c>
@@ -7547,7 +7548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>813</v>
       </c>
@@ -7573,7 +7574,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>404</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>449</v>
       </c>
@@ -7625,7 +7626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>733</v>
       </c>
@@ -7677,7 +7678,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>102</v>
       </c>
@@ -7703,7 +7704,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>205</v>
       </c>
@@ -7729,7 +7730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>358</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>914</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>527</v>
       </c>
@@ -7833,7 +7834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>512</v>
       </c>
@@ -7859,7 +7860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>940</v>
       </c>
@@ -7963,7 +7964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>608</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>785</v>
       </c>
@@ -8015,7 +8016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>915</v>
       </c>
@@ -8067,7 +8068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>452</v>
       </c>
@@ -8145,7 +8146,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>633</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>869</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>658</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>154</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>265</v>
       </c>
@@ -11005,7 +11006,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>442</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>646</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>461</v>
       </c>
@@ -11707,7 +11708,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>37</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>250</v>
       </c>
@@ -11811,7 +11812,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>507</v>
       </c>
@@ -11915,7 +11916,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>834</v>
       </c>
@@ -11941,7 +11942,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>118</v>
       </c>
@@ -11967,7 +11968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>297</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>528</v>
       </c>
@@ -12981,7 +12982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>685</v>
       </c>
@@ -13007,7 +13008,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>117</v>
       </c>
@@ -13475,7 +13476,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>718</v>
       </c>
@@ -14593,7 +14594,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>20</v>
       </c>
@@ -14619,7 +14620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>107</v>
       </c>
@@ -14645,7 +14646,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>146</v>
       </c>
@@ -14723,7 +14724,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>437</v>
       </c>
@@ -15139,7 +15140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>502</v>
       </c>
@@ -15191,7 +15192,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>131</v>
       </c>
@@ -15243,7 +15244,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>249</v>
       </c>
@@ -15295,7 +15296,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>390</v>
       </c>
@@ -15425,7 +15426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>851</v>
       </c>
@@ -15555,7 +15556,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>141</v>
       </c>
@@ -15581,7 +15582,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>224</v>
       </c>
@@ -15685,7 +15686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>463</v>
       </c>
@@ -15867,7 +15868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>802</v>
       </c>
@@ -15971,7 +15972,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>160</v>
       </c>
@@ -17479,7 +17480,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>410</v>
       </c>
@@ -17999,7 +18000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>487</v>
       </c>
@@ -20183,7 +20184,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>235</v>
       </c>
@@ -20209,7 +20210,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>321</v>
       </c>
@@ -20235,7 +20236,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>413</v>
       </c>
@@ -20261,7 +20262,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>497</v>
       </c>
@@ -20287,7 +20288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>598</v>
       </c>
@@ -20313,7 +20314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>712</v>
       </c>
@@ -20339,7 +20340,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>465</v>
       </c>
@@ -20417,7 +20418,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>254</v>
       </c>
@@ -20547,7 +20548,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>594</v>
       </c>
@@ -20573,7 +20574,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>18</v>
       </c>
@@ -20625,7 +20626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>172</v>
       </c>
@@ -20651,7 +20652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>531</v>
       </c>
@@ -20703,7 +20704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>192</v>
       </c>
@@ -20729,7 +20730,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>619</v>
       </c>
@@ -20755,7 +20756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>891</v>
       </c>
@@ -20859,7 +20860,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>201</v>
       </c>
@@ -20885,7 +20886,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>564</v>
       </c>
@@ -20911,7 +20912,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>949</v>
       </c>
@@ -20937,7 +20938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>31</v>
       </c>
@@ -20963,7 +20964,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>68</v>
       </c>
@@ -21015,7 +21016,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>540</v>
       </c>
@@ -21041,7 +21042,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>627</v>
       </c>
@@ -21067,7 +21068,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>730</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>21</v>
       </c>
@@ -21119,7 +21120,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>133</v>
       </c>
@@ -21145,7 +21146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>248</v>
       </c>
@@ -21171,7 +21172,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>308</v>
       </c>
@@ -21197,7 +21198,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>618</v>
       </c>
@@ -21249,7 +21250,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>209</v>
       </c>
@@ -21275,7 +21276,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>313</v>
       </c>
@@ -21301,7 +21302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>322</v>
       </c>
@@ -21327,7 +21328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>343</v>
       </c>
@@ -21379,7 +21380,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>918</v>
       </c>
@@ -21405,7 +21406,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>426</v>
       </c>
@@ -21431,7 +21432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>838</v>
       </c>
@@ -21483,7 +21484,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>520</v>
       </c>
@@ -21743,7 +21744,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>363</v>
       </c>
@@ -21769,7 +21770,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>62</v>
       </c>
@@ -21795,7 +21796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>912</v>
       </c>
@@ -21977,7 +21978,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>551</v>
       </c>
@@ -22367,7 +22368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>394</v>
       </c>
@@ -22445,7 +22446,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>89</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>549</v>
       </c>
@@ -22679,7 +22680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>794</v>
       </c>
@@ -23251,7 +23252,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>43</v>
       </c>
@@ -23329,7 +23330,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>511</v>
       </c>
@@ -23693,7 +23694,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>597</v>
       </c>
@@ -24291,7 +24292,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>445</v>
       </c>
@@ -24447,7 +24448,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>96</v>
       </c>
@@ -24603,7 +24604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>655</v>
       </c>
@@ -24681,7 +24682,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>655</v>
       </c>
@@ -24707,7 +24708,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>439</v>
       </c>
@@ -24733,7 +24734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="825" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>472</v>
       </c>
@@ -24759,7 +24760,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="826" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>816</v>
       </c>
@@ -24785,7 +24786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="827" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>944</v>
       </c>
@@ -24837,7 +24838,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="829" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>683</v>
       </c>
@@ -24863,7 +24864,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="830" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>745</v>
       </c>
@@ -24915,7 +24916,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="832" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>369</v>
       </c>
@@ -24941,7 +24942,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="833" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>652</v>
       </c>
@@ -24967,7 +24968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="834" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>796</v>
       </c>
@@ -24993,7 +24994,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="835" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>881</v>
       </c>
@@ -25019,7 +25020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="836" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>569</v>
       </c>
@@ -25071,7 +25072,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="838" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>867</v>
       </c>
@@ -25097,7 +25098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="839" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>835</v>
       </c>
@@ -25123,7 +25124,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="840" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>403</v>
       </c>
@@ -25149,7 +25150,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="841" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>759</v>
       </c>
@@ -25175,7 +25176,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="842" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>828</v>
       </c>
@@ -25929,7 +25930,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="871" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>320</v>
       </c>
@@ -26371,7 +26372,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="888" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>726</v>
       </c>
@@ -26397,7 +26398,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="889" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>447</v>
       </c>
@@ -27177,7 +27178,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="919" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>526</v>
       </c>
@@ -27333,7 +27334,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="925" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>582</v>
       </c>
@@ -27359,7 +27360,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="926" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>492</v>
       </c>
@@ -27385,7 +27386,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="927" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>600</v>
       </c>
@@ -27411,7 +27412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="928" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>296</v>
       </c>
@@ -27437,7 +27438,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="929" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>700</v>
       </c>
@@ -27463,7 +27464,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="930" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>532</v>
       </c>
@@ -27775,7 +27776,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="942" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>389</v>
       </c>
@@ -28374,7 +28375,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H964" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:H964" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="ECONOMICAS"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
